--- a/arquivos/paises.xlsx
+++ b/arquivos/paises.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="paises" sheetId="1" state="visible" r:id="rId2"/>
@@ -82,718 +82,718 @@
     <t xml:space="preserve">servicos</t>
   </si>
   <si>
-    <t xml:space="preserve">Afghanistan </t>
+    <t xml:space="preserve">Afghanistan</t>
   </si>
   <si>
     <t xml:space="preserve">ASIA (EX. NEAR EAST)         </t>
   </si>
   <si>
-    <t xml:space="preserve">Albania </t>
+    <t xml:space="preserve">Albania</t>
   </si>
   <si>
     <t xml:space="preserve">EASTERN EUROPE                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Algeria </t>
+    <t xml:space="preserve">Algeria</t>
   </si>
   <si>
     <t xml:space="preserve">NORTHERN AFRICA                    </t>
   </si>
   <si>
-    <t xml:space="preserve">American Samoa </t>
+    <t xml:space="preserve">American Samoa</t>
   </si>
   <si>
     <t xml:space="preserve">OCEANIA                            </t>
   </si>
   <si>
-    <t xml:space="preserve">Andorra </t>
+    <t xml:space="preserve">Andorra</t>
   </si>
   <si>
     <t xml:space="preserve">WESTERN EUROPE                     </t>
   </si>
   <si>
-    <t xml:space="preserve">Angola </t>
+    <t xml:space="preserve">Angola</t>
   </si>
   <si>
     <t xml:space="preserve">SUB-SAHARAN AFRICA                 </t>
   </si>
   <si>
-    <t xml:space="preserve">Anguilla </t>
+    <t xml:space="preserve">Anguilla</t>
   </si>
   <si>
     <t xml:space="preserve">LATIN AMER. &amp; CARIB    </t>
   </si>
   <si>
-    <t xml:space="preserve">Antigua &amp; Barbuda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia </t>
+    <t xml:space="preserve">Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
   </si>
   <si>
     <t xml:space="preserve">C.W. OF IND. STATES </t>
   </si>
   <si>
-    <t xml:space="preserve">Aruba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas, The </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain </t>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
   </si>
   <si>
     <t xml:space="preserve">NEAR EAST                          </t>
   </si>
   <si>
-    <t xml:space="preserve">Bangladesh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bermuda </t>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermuda</t>
   </si>
   <si>
     <t xml:space="preserve">NORTHERN AMERICA                   </t>
   </si>
   <si>
-    <t xml:space="preserve">Bhutan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia &amp; Herzegovina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Virgin Is. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunei </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burma </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape Verde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cayman Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Rep. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">China </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo, Dem. Rep. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo, Repub. of the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cote d'Ivoire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyprus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czech Republic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Timor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia </t>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">British Virgin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayman Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo, Repub. of the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Timor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
   </si>
   <si>
     <t xml:space="preserve">BALTICS                            </t>
   </si>
   <si>
-    <t xml:space="preserve">Ethiopia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Faroe Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">France </t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Guiana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">French Polynesia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia, The </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gaza Strip </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gibraltar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guadeloupe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guernsey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hong Kong </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">India </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isle of Man </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jersey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, North </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea, South </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lithuania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayotte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia, Fed. St. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monaco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands Antilles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Caledonia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N. Mariana Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reunion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Helena </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts &amp; Nevis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Pierre &amp; Miquelon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Marino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swaziland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turks &amp; Caicos Is </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuvalu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virgin Islands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallis and Futuna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Bank </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Sahara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe </t>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faroe Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Guiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French Polynesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia, The</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaza Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gibraltar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadeloupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guernsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hong Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isle of Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jersey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, North</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lithuania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayotte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia, Fed. St.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands Antilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. Mariana Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Helena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Pierre &amp; Miquelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Marino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swaziland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad &amp; Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turks &amp; Caicos Is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgin Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallis and Futuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -808,6 +808,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -891,29 +892,29 @@
   </sheetPr>
   <dimension ref="A1:T228"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A229" activeCellId="0" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3826530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.1938775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.24489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.85714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.91836734693878"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.05612244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.85714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.1071428571429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.77551020408163"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.83673469387755"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.64285714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="8.37755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3316326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.28061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.82142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.90816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.22448979591837"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.82142857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6836734693878"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.0969387755102"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.5969387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.58673469387755"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.77551020408163"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.54081632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.96428571428571"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="8.3265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.4540816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/arquivos/paises.xlsx
+++ b/arquivos/paises.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">regiao</t>
   </si>
   <si>
-    <t xml:space="preserve">pop</t>
+    <t xml:space="preserve">popul</t>
   </si>
   <si>
     <t xml:space="preserve">area</t>
@@ -892,29 +892,30 @@
   </sheetPr>
   <dimension ref="A1:T228"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A229" activeCellId="0" sqref="A229"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.780612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5969387755102"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="9.28061224489796"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.82142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.90816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.5969387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.77551020408163"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.22448979591837"/>
     <col collapsed="false" hidden="false" max="11" min="10" style="0" width="6.82142857142857"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.6836734693878"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.0969387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.5969387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.58673469387755"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.77551020408163"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="8.45918367346939"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="5.45408163265306"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.64285714285714"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.54081632653061"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.96428571428571"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="8.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.4540816326531"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="8.17857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="11.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
